--- a/info/toxins_and_antibiotics.xlsx
+++ b/info/toxins_and_antibiotics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgierlinski/Work/Projects/BSubComp/info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FEF37D-F612-C84F-8D26-5FA11EEEB70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120116FB-D16E-654B-974C-2D7405FCA9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="13900" xr2:uid="{AD09022D-F9B1-4A44-AF17-DB03513BEC93}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Toxins and antibiotics</t>
   </si>
@@ -303,6 +303,12 @@
   </si>
   <si>
     <t>Chromosome</t>
+  </si>
+  <si>
+    <t>yfjA</t>
+  </si>
+  <si>
+    <t>yfjF</t>
   </si>
 </sst>
 </file>
@@ -694,7 +700,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:O4"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -962,7 +968,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -970,7 +976,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>80</v>
       </c>
@@ -978,7 +984,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -986,7 +992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -999,13 +1005,19 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>83</v>
       </c>
